--- a/maven_project_sample/src/main/resources/data.xlsx
+++ b/maven_project_sample/src/main/resources/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -43,12 +43,19 @@
   </si>
   <si>
     <t>Belsar</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>junnar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -388,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -396,8 +403,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -419,6 +426,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -438,6 +448,9 @@
       </c>
       <c r="F2" t="s">
         <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
